--- a/tests/models/linear/0a_tech_filters/concept.xlsx
+++ b/tests/models/linear/0a_tech_filters/concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\Documents\GitHub\pyesm\default\0 - tech_filters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baioc\Documents\GitHub\pyesm\tests\models\linear\0a_tech_filters\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66817F24-FFAB-433E-9D35-FEC7A32D2461}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B034CFC1-F2FC-4DBA-BF41-6549C82D4CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="19410" windowHeight="15585" activeTab="1" xr2:uid="{E114F217-1283-47A9-999D-63924FD6D4FE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E114F217-1283-47A9-999D-63924FD6D4FE}"/>
   </bookViews>
   <sheets>
     <sheet name="concept" sheetId="2" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -662,7 +662,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -728,8 +728,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1151,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE05235-892E-456B-BF7F-0596A6B82F2A}">
-  <dimension ref="A1:AH56"/>
+  <dimension ref="A1:AH55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P22" sqref="P22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1765,8 +1763,8 @@
         <v>1</v>
       </c>
       <c r="Q15" s="12">
-        <f>SUM(M35:O39,_xlfn.ANCHORARRAY(O42))</f>
-        <v>4604.8391899999997</v>
+        <f>SUM(M35:O39,O42:O46)</f>
+        <v>6892.3391899999997</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
@@ -2156,13 +2154,10 @@
         <f t="shared" si="0"/>
         <v>1000</v>
       </c>
-      <c r="O46" s="40">
+      <c r="O46" s="16">
         <f t="shared" si="1"/>
         <v>1755</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O47" s="39"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="M48" s="11" t="s">
@@ -2263,9 +2258,6 @@
         <f t="shared" si="4"/>
         <v>35.1</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="O56" s="39"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2278,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C85BC2-84C6-492E-9CCE-0912082280BB}">
   <dimension ref="A1:I32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
